--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\adu123\Coding\pytrf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B174E84-EFC3-4B03-9FF4-A588EFD6721B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08502FCB-0DEB-44C4-A2DE-1F5447637B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13215" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
@@ -84,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -93,6 +93,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -375,20 +378,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="9.06640625" style="1"/>
-    <col min="6" max="6" width="7.1328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="5" width="9.05078125" style="1"/>
+    <col min="6" max="6" width="7.1015625" style="1" customWidth="1"/>
+    <col min="7" max="16" width="9.05078125" style="1"/>
+    <col min="17" max="17" width="9.05078125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,8 +412,29 @@
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -433,8 +459,38 @@
       <c r="M2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,20 +521,47 @@
       <c r="M3" s="1">
         <v>2</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
       <c r="Q3" s="1">
         <v>0</v>
       </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2</v>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,20 +592,47 @@
       <c r="M4" s="1">
         <v>1</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
       <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="T4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -553,20 +663,47 @@
       <c r="M5" s="2">
         <v>0</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3</v>
+      </c>
       <c r="Q5" s="1">
-        <v>2</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,20 +734,47 @@
       <c r="M6" s="1">
         <v>1</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
       <c r="Q6" s="1">
-        <v>3</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -641,20 +805,47 @@
       <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="Q7" s="1">
-        <v>4</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>2</v>
+      <c r="O7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,20 +876,47 @@
       <c r="M8" s="2">
         <v>2</v>
       </c>
-      <c r="Q8" s="1">
-        <v>5</v>
-      </c>
-      <c r="R8" s="1">
-        <v>2</v>
-      </c>
-      <c r="S8" s="1">
-        <v>2</v>
+      <c r="O8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="U8" s="2">
+        <v>2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,20 +947,47 @@
       <c r="M9" s="1">
         <v>3</v>
       </c>
-      <c r="Q9" s="1">
-        <v>6</v>
-      </c>
-      <c r="R9" s="1">
-        <v>3</v>
-      </c>
-      <c r="S9" s="1">
-        <v>3</v>
+      <c r="O9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="U9" s="1">
+        <v>3</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -773,20 +1018,47 @@
       <c r="M10" s="2">
         <v>3</v>
       </c>
-      <c r="Q10" s="1">
-        <v>7</v>
-      </c>
-      <c r="R10" s="1">
-        <v>2</v>
-      </c>
-      <c r="S10" s="1">
-        <v>3</v>
+      <c r="O10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>2</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2</v>
+      </c>
+      <c r="V10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -817,20 +1089,47 @@
       <c r="M11" s="1">
         <v>4</v>
       </c>
-      <c r="Q11" s="1">
-        <v>8</v>
-      </c>
-      <c r="R11" s="1">
-        <v>3</v>
-      </c>
-      <c r="S11" s="1">
-        <v>3</v>
+      <c r="O11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="T11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="U11" s="1">
+        <v>3</v>
+      </c>
+      <c r="V11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -861,20 +1160,35 @@
       <c r="M12" s="1">
         <v>4</v>
       </c>
-      <c r="Q12" s="1">
-        <v>9</v>
-      </c>
-      <c r="R12" s="1">
-        <v>3</v>
-      </c>
-      <c r="S12" s="1">
-        <v>3</v>
-      </c>
-      <c r="T12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="O12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -905,20 +1219,35 @@
       <c r="M13" s="2">
         <v>3</v>
       </c>
-      <c r="Q13" s="1">
-        <v>10</v>
-      </c>
-      <c r="R13" s="1">
-        <v>4</v>
-      </c>
-      <c r="S13" s="1">
-        <v>3</v>
-      </c>
-      <c r="T13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="O13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -949,20 +1278,35 @@
       <c r="M14" s="2">
         <v>4</v>
       </c>
-      <c r="Q14" s="1">
-        <v>11</v>
-      </c>
-      <c r="R14" s="1">
-        <v>4</v>
-      </c>
-      <c r="S14" s="1">
-        <v>4</v>
-      </c>
-      <c r="T14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="O14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="1" t="s">
         <v>1</v>
       </c>
@@ -978,20 +1322,35 @@
       <c r="M15" s="1">
         <v>5</v>
       </c>
-      <c r="Q15" s="1">
-        <v>12</v>
-      </c>
-      <c r="R15" s="1">
-        <v>4</v>
-      </c>
-      <c r="S15" s="1">
-        <v>5</v>
-      </c>
-      <c r="T15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,20 +1366,26 @@
       <c r="M16" s="1">
         <v>6</v>
       </c>
-      <c r="Q16" s="1">
-        <v>13</v>
-      </c>
-      <c r="R16" s="1">
-        <v>5</v>
-      </c>
-      <c r="S16" s="1">
-        <v>5</v>
-      </c>
-      <c r="T16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.45">
+      <c r="Y16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="9:30" x14ac:dyDescent="0.55000000000000004">
       <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1036,20 +1401,26 @@
       <c r="M17" s="3">
         <v>5</v>
       </c>
-      <c r="Q17" s="1">
-        <v>14</v>
-      </c>
-      <c r="R17" s="1">
-        <v>5</v>
-      </c>
-      <c r="S17" s="1">
-        <v>5</v>
-      </c>
-      <c r="T17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.45">
+      <c r="Y17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>15</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:30" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,20 +1436,26 @@
       <c r="M18" s="1">
         <v>6</v>
       </c>
-      <c r="Q18" s="1">
-        <v>15</v>
-      </c>
-      <c r="R18" s="1">
-        <v>6</v>
-      </c>
-      <c r="S18" s="1">
-        <v>6</v>
-      </c>
-      <c r="T18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.45">
+      <c r="Y18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="9:30" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1094,20 +1471,26 @@
       <c r="M19" s="1">
         <v>7</v>
       </c>
-      <c r="Q19" s="1">
-        <v>16</v>
-      </c>
-      <c r="R19" s="1">
-        <v>5</v>
-      </c>
-      <c r="S19" s="1">
-        <v>6</v>
-      </c>
-      <c r="T19" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.45">
+      <c r="Y19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>17</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="9:30" x14ac:dyDescent="0.55000000000000004">
       <c r="I20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,20 +1506,26 @@
       <c r="M20" s="1">
         <v>7</v>
       </c>
-      <c r="Q20" s="1">
-        <v>17</v>
-      </c>
-      <c r="R20" s="1">
-        <v>6</v>
-      </c>
-      <c r="S20" s="1">
-        <v>6</v>
-      </c>
-      <c r="T20" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.45">
+      <c r="Y20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>18</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="9:30" x14ac:dyDescent="0.55000000000000004">
       <c r="I21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1150,32 +1539,6 @@
         <v>7</v>
       </c>
       <c r="M21" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>18</v>
-      </c>
-      <c r="R21" s="1">
-        <v>7</v>
-      </c>
-      <c r="S21" s="1">
-        <v>6</v>
-      </c>
-      <c r="T21" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="Q22" s="1">
-        <v>19</v>
-      </c>
-      <c r="R22" s="1">
-        <v>7</v>
-      </c>
-      <c r="S22" s="1">
-        <v>7</v>
-      </c>
-      <c r="T22" s="1">
         <v>6</v>
       </c>
     </row>
